--- a/Bonmillette_hybrid_framework_automation/excel_data/project_documents.xlsx
+++ b/Bonmillette_hybrid_framework_automation/excel_data/project_documents.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="bonmillette_titles" sheetId="1" r:id="rId1"/>
     <sheet name="bonmillette_urls" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="urls" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>http://localhost:5173/</t>
   </si>
@@ -40,6 +41,33 @@
   </si>
   <si>
     <t>Testimonials - Bonmillette</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/all-blogs</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/shop</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/our-story</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/testimonials</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/contact-us</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/my-account</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>urls</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/about-us</t>
   </si>
 </sst>
 </file>
@@ -371,47 +399,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -419,33 +530,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bonmillette_hybrid_framework_automation/excel_data/project_documents.xlsx
+++ b/Bonmillette_hybrid_framework_automation/excel_data/project_documents.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E5F12-BFCD-49CE-8B6D-CFA37EB056E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bonmillette_titles" sheetId="1" r:id="rId1"/>
@@ -22,9 +23,6 @@
     <t>http://localhost:5173/</t>
   </si>
   <si>
-    <t>Homepage - Bonmillette</t>
-  </si>
-  <si>
     <t>Shop - Bonmillette</t>
   </si>
   <si>
@@ -68,13 +66,16 @@
   </si>
   <si>
     <t>http://localhost:5173/about-us</t>
+  </si>
+  <si>
+    <t>Homepage - Bonmillettes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +198,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +250,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,81 +443,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -481,48 +526,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -531,48 +576,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -581,14 +626,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bonmillette_hybrid_framework_automation/excel_data/project_documents.xlsx
+++ b/Bonmillette_hybrid_framework_automation/excel_data/project_documents.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E5F12-BFCD-49CE-8B6D-CFA37EB056E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D045B-57D6-451D-B146-66C2B2A9BDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>http://localhost:5173/about-us</t>
   </si>
   <si>
-    <t>Homepage - Bonmillettes</t>
+    <t>Homepage - Bonmillette</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
